--- a/DateBase/orders/Dang Nguyen_2025-2-24.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-2-24.xlsx
@@ -741,6 +741,9 @@
       <c r="G2" t="str">
         <v>02020551020101010151520151013125720106715762153</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
